--- a/status reports/nicholas.xlsx
+++ b/status reports/nicholas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -27,6 +27,18 @@
   </si>
   <si>
     <t>Comment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/5/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Weekly Meeting</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Group Meeting</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -383,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -404,6 +416,28 @@
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/status reports/nicholas.xlsx
+++ b/status reports/nicholas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -39,6 +39,10 @@
   </si>
   <si>
     <t>Group Meeting</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/7/2010</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -395,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -437,6 +441,17 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
         <v>5</v>
       </c>
     </row>

--- a/status reports/nicholas.xlsx
+++ b/status reports/nicholas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -43,6 +43,14 @@
   </si>
   <si>
     <t>1/7/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/8/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Knex Party</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -399,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -453,6 +461,17 @@
       </c>
       <c r="C4" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/status reports/nicholas.xlsx
+++ b/status reports/nicholas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -51,6 +51,14 @@
   </si>
   <si>
     <t>Knex Party</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/9/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Meccano Party</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -407,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -472,6 +480,17 @@
       </c>
       <c r="C5" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/status reports/nicholas.xlsx
+++ b/status reports/nicholas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -59,6 +59,14 @@
   </si>
   <si>
     <t>Meccano Party</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/12/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Weekly Meeting</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -415,14 +423,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5" customWidth="1"/>
     <col min="3" max="3" width="59" customWidth="1"/>
   </cols>
@@ -491,6 +500,17 @@
       </c>
       <c r="C6" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/status reports/nicholas.xlsx
+++ b/status reports/nicholas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -67,6 +67,10 @@
   </si>
   <si>
     <t>Weekly Meeting</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/19/2010</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -423,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -511,6 +515,28 @@
       </c>
       <c r="C7" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/status reports/nicholas.xlsx
+++ b/status reports/nicholas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -54,24 +54,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1/9/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Meccano Party</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1/12/2010</t>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Winnowing Documentation</t>
+  </si>
+  <si>
+    <t>Tool Research</t>
   </si>
   <si>
     <t>Weekly Meeting</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1/19/2010</t>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Physical Prototyping writeup</t>
   </si>
 </sst>
 </file>
@@ -82,14 +77,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -98,7 +93,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -126,16 +121,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -143,7 +141,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -427,16 +425,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" customWidth="1"/>
     <col min="3" max="3" width="59" customWidth="1"/>
   </cols>
   <sheetData>
@@ -452,7 +450,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
@@ -463,7 +461,7 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B3">
@@ -474,7 +472,7 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B4">
@@ -485,58 +483,69 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" t="s">
-        <v>7</v>
+      <c r="A5" s="2">
+        <v>40185</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+    <row r="7" spans="1:3">
+      <c r="A7" s="2">
+        <v>40187</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" t="s">
-        <v>13</v>
+      <c r="A8" s="2">
+        <v>40188</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>13</v>
+      <c r="A9" s="2">
+        <v>40190</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2">
+        <v>40197</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -552,7 +561,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -566,7 +575,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/status reports/nicholas.xlsx
+++ b/status reports/nicholas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -67,6 +67,10 @@
   </si>
   <si>
     <t>Physical Prototyping writeup</t>
+  </si>
+  <si>
+    <t>1/19/2010</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -77,14 +81,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -93,7 +97,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -133,7 +137,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -141,7 +145,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -425,16 +429,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.375" customWidth="1"/>
     <col min="3" max="3" width="59" customWidth="1"/>
   </cols>
   <sheetData>
@@ -509,7 +513,7 @@
         <v>40187</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -538,13 +542,35 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="2">
+      <c r="A10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2">
         <v>40197</v>
       </c>
-      <c r="B10">
+      <c r="B12">
         <v>3</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C12" t="s">
         <v>13</v>
       </c>
     </row>
@@ -561,7 +587,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -575,7 +601,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/status reports/nicholas.xlsx
+++ b/status reports/nicholas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -70,6 +70,14 @@
   </si>
   <si>
     <t>1/19/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/20/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Meeting with Nich on gravity compensation</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -429,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A13" sqref="A13:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -572,6 +580,17 @@
       </c>
       <c r="C12" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/status reports/nicholas.xlsx
+++ b/status reports/nicholas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -77,7 +77,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Meeting with Nich on gravity compensation</t>
+    <t>Meeting with David on gravity compensation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/21/2010</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -437,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:C13"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -591,6 +595,17 @@
       </c>
       <c r="C13" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/status reports/nicholas.xlsx
+++ b/status reports/nicholas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -82,6 +82,22 @@
   </si>
   <si>
     <t>1/21/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/23/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TAR writeup</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/24/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Gravity compensation model</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -137,7 +153,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -145,6 +161,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -441,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -606,6 +625,28 @@
       </c>
       <c r="C14" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/status reports/nicholas.xlsx
+++ b/status reports/nicholas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -98,6 +98,10 @@
   </si>
   <si>
     <t>Gravity compensation model</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/26/2010</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -460,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -647,6 +651,28 @@
       </c>
       <c r="C16" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/status reports/nicholas.xlsx
+++ b/status reports/nicholas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -102,6 +102,14 @@
   </si>
   <si>
     <t>1/26/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/27/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TAR - gravity compensation</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -464,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -673,6 +681,17 @@
       </c>
       <c r="C18" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/status reports/nicholas.xlsx
+++ b/status reports/nicholas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -110,6 +110,10 @@
   </si>
   <si>
     <t>TAR - gravity compensation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/28/2010</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -472,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -692,6 +696,17 @@
       </c>
       <c r="C19" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/status reports/nicholas.xlsx
+++ b/status reports/nicholas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -114,6 +114,26 @@
   </si>
   <si>
     <t>1/28/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2/1/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Group Meeting - Chris meeting prep</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Chris Meeting</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2/2/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Group Meeting</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -476,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="A21" sqref="A21:C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -707,6 +727,39 @@
       </c>
       <c r="C20" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23">
+        <v>1.5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/status reports/nicholas.xlsx
+++ b/status reports/nicholas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -134,6 +134,26 @@
   </si>
   <si>
     <t>Group Meeting</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/7/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/9/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/10/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/12/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/19/2010</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -499,7 +519,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:C23"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -554,8 +574,8 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="2">
-        <v>40185</v>
+      <c r="A5" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -576,8 +596,8 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="2">
-        <v>40187</v>
+      <c r="A7" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -587,8 +607,8 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="2">
-        <v>40188</v>
+      <c r="A8" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -598,8 +618,8 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="2">
-        <v>40190</v>
+      <c r="A9" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -631,8 +651,8 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="2">
-        <v>40197</v>
+      <c r="A12" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="B12">
         <v>3</v>

--- a/status reports/nicholas.xlsx
+++ b/status reports/nicholas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -154,6 +154,22 @@
   </si>
   <si>
     <t>1/19/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2/4/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Design breakdown</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2/8/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Group Meeting</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -516,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -780,6 +796,28 @@
       </c>
       <c r="C23" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25">
+        <v>1.5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/status reports/nicholas.xlsx
+++ b/status reports/nicholas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -170,6 +170,18 @@
   </si>
   <si>
     <t>Group Meeting</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2/11/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Design and Decision Meeting</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2/8/2010</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -532,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="D26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -818,6 +830,28 @@
       </c>
       <c r="C25" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/status reports/nicholas.xlsx
+++ b/status reports/nicholas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -182,6 +182,14 @@
   </si>
   <si>
     <t>2/8/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2/18/2010</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Group Meeting on Skype</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -544,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="A26:XFD26"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -852,6 +860,17 @@
       </c>
       <c r="C27" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/status reports/nicholas.xlsx
+++ b/status reports/nicholas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -30,10 +30,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1/5/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Weekly Meeting</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -42,14 +38,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1/7/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1/8/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Knex Party</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -69,58 +57,22 @@
     <t>Physical Prototyping writeup</t>
   </si>
   <si>
-    <t>1/19/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1/20/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Meeting with David on gravity compensation</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1/21/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1/23/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>TAR writeup</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1/24/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Gravity compensation model</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1/26/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1/27/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>TAR - gravity compensation</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1/28/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2/1/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Group Meeting - Chris meeting prep</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -129,67 +81,27 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2/2/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Group Meeting</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1/7/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1/9/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1/10/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1/12/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1/19/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2/4/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Design breakdown</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2/8/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Group Meeting</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2/11/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Design and Decision Meeting</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2/8/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2/18/2010</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Group Meeting on Skype</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Group Meeting</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -245,7 +157,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -253,9 +165,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -552,15 +461,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.375" customWidth="1"/>
     <col min="3" max="3" width="59" customWidth="1"/>
   </cols>
@@ -577,300 +486,322 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
+      <c r="A2" s="2">
+        <v>40183</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2">
+        <v>40183</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
+      <c r="A4" s="2">
+        <v>40185</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="2" t="s">
-        <v>31</v>
+      <c r="A5" s="2">
+        <v>40185</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
+      <c r="A6" s="2">
+        <v>40186</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2">
+        <v>40187</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2">
+        <v>40188</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
+    <row r="9" spans="1:3">
+      <c r="A9" s="2">
+        <v>40190</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
+    <row r="10" spans="1:3">
+      <c r="A10" s="2">
+        <v>40197</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2">
+        <v>40197</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2">
+        <v>40197</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2">
+        <v>40198</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
+    <row r="14" spans="1:3">
+      <c r="A14" s="2">
+        <v>40199</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2">
+        <v>40201</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16" s="2">
+        <v>40202</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15">
-        <v>3</v>
-      </c>
-      <c r="C15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16">
-        <v>3</v>
-      </c>
-      <c r="C16" t="s">
-        <v>21</v>
-      </c>
-    </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="2" t="s">
-        <v>22</v>
+      <c r="A17" s="2">
+        <v>40204</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="2" t="s">
-        <v>22</v>
+      <c r="A18" s="2">
+        <v>40204</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="2" t="s">
-        <v>23</v>
+      <c r="A19" s="2">
+        <v>40205</v>
       </c>
       <c r="B19">
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="2" t="s">
-        <v>25</v>
+      <c r="A20" s="2">
+        <v>40206</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>26</v>
+      <c r="A21" s="2">
+        <v>40210</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>26</v>
+      <c r="A22" s="2">
+        <v>40210</v>
       </c>
       <c r="B22">
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>29</v>
+      <c r="A23" s="2">
+        <v>40211</v>
       </c>
       <c r="B23">
         <v>1.5</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>36</v>
+      <c r="A24" s="2">
+        <v>40213</v>
       </c>
       <c r="B24">
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>38</v>
+      <c r="A25" s="2">
+        <v>40217</v>
       </c>
       <c r="B25">
         <v>1.5</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>42</v>
+      <c r="A26" s="2">
+        <v>40217</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>40</v>
+      <c r="A27" s="2">
+        <v>40220</v>
       </c>
       <c r="B27">
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>43</v>
+      <c r="A28" s="2">
+        <v>40227</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>44</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2">
+        <v>40229</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2">
+        <v>40232</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/status reports/nicholas.xlsx
+++ b/status reports/nicholas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -98,6 +98,10 @@
   </si>
   <si>
     <t>Group Meeting on Skype</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Group Meeting</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -461,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -802,6 +806,17 @@
       </c>
       <c r="C30" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2">
+        <v>40241</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/status reports/nicholas.xlsx
+++ b/status reports/nicholas.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9114"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="11760"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -107,24 +107,45 @@
   <si>
     <t>Group Meeting</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Coupling selection</t>
+  </si>
+  <si>
+    <t>Rotating base design</t>
+  </si>
+  <si>
+    <t>Sizing calculations</t>
+  </si>
+  <si>
+    <t>Motor selection background</t>
+  </si>
+  <si>
+    <t>Maxon motor types</t>
+  </si>
+  <si>
+    <t>Gear box calculations</t>
+  </si>
+  <si>
+    <t>Motor precision requirements</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -133,7 +154,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -173,15 +194,20 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -191,34 +217,34 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1F497D" mc:Ignorable=""/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="EEECE1" mc:Ignorable=""/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="4F81BD" mc:Ignorable=""/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="C0504D" mc:Ignorable=""/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="9BBB59" mc:Ignorable=""/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="8064A2" mc:Ignorable=""/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="4BACC6" mc:Ignorable=""/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="F79646" mc:Ignorable=""/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0000FF" mc:Ignorable=""/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="800080" mc:Ignorable=""/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
@@ -255,6 +281,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -289,6 +316,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -370,7 +398,7 @@
         <a:effectStyle>
           <a:effectLst>
             <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="">
                 <a:alpha val="38000"/>
               </a:srgbClr>
             </a:outerShdw>
@@ -379,7 +407,7 @@
         <a:effectStyle>
           <a:effectLst>
             <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="">
                 <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
@@ -388,7 +416,7 @@
         <a:effectStyle>
           <a:effectLst>
             <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
+              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="">
                 <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
@@ -464,17 +492,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.375" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" customWidth="1"/>
     <col min="3" max="3" width="59" customWidth="1"/>
   </cols>
   <sheetData>
@@ -777,46 +805,134 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2">
-        <v>40227</v>
+        <v>40223</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2">
-        <v>40229</v>
+        <v>40223</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2">
-        <v>40232</v>
+        <v>40224</v>
       </c>
       <c r="B30">
         <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2">
+        <v>40227</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2">
+        <v>40228</v>
+      </c>
+      <c r="B32">
+        <v>0.5</v>
+      </c>
+      <c r="C32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2">
+        <v>40228</v>
+      </c>
+      <c r="B33">
+        <v>0.5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2">
+        <v>40228</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2">
+        <v>40229</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2">
+        <v>40232</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2">
+        <v>40232</v>
+      </c>
+      <c r="B37">
+        <v>0.5</v>
+      </c>
+      <c r="C37" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2">
         <v>40241</v>
       </c>
-      <c r="B31">
+      <c r="B38">
         <v>2</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C38" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2">
+        <v>40241</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -827,12 +943,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -841,12 +957,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/status reports/nicholas.xlsx
+++ b/status reports/nicholas.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9114"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="11760"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -128,24 +128,28 @@
   </si>
   <si>
     <t>Motor precision requirements</t>
+  </si>
+  <si>
+    <t>Group Meeting</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -154,7 +158,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -194,7 +198,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -207,7 +211,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -217,34 +221,34 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="1F497D" mc:Ignorable=""/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="EEECE1" mc:Ignorable=""/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="4F81BD" mc:Ignorable=""/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="C0504D" mc:Ignorable=""/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="9BBB59" mc:Ignorable=""/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="8064A2" mc:Ignorable=""/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="4BACC6" mc:Ignorable=""/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="F79646" mc:Ignorable=""/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0000FF" mc:Ignorable=""/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="800080" mc:Ignorable=""/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
@@ -281,7 +285,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -316,7 +319,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -398,7 +400,7 @@
         <a:effectStyle>
           <a:effectLst>
             <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="">
+              <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
             </a:outerShdw>
@@ -407,7 +409,7 @@
         <a:effectStyle>
           <a:effectLst>
             <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="">
+              <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
@@ -416,7 +418,7 @@
         <a:effectStyle>
           <a:effectLst>
             <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="">
+              <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
@@ -492,17 +494,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.375" customWidth="1"/>
     <col min="3" max="3" width="59" customWidth="1"/>
   </cols>
   <sheetData>
@@ -933,6 +935,28 @@
       </c>
       <c r="C39" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2">
+        <v>40246</v>
+      </c>
+      <c r="B40">
+        <v>1.5</v>
+      </c>
+      <c r="C40" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2">
+        <v>40246</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -943,12 +967,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -957,12 +981,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/status reports/nicholas.xlsx
+++ b/status reports/nicholas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -128,6 +128,10 @@
   </si>
   <si>
     <t>Motor precision requirements</t>
+  </si>
+  <si>
+    <t>Group Meeting</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Group Meeting</t>
@@ -495,15 +499,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.375" customWidth="1"/>
     <col min="3" max="3" width="59" customWidth="1"/>
   </cols>
@@ -957,6 +961,17 @@
       </c>
       <c r="C41" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2">
+        <v>40253</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/status reports/nicholas.xlsx
+++ b/status reports/nicholas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -135,6 +135,14 @@
   </si>
   <si>
     <t>Group Meeting</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Group Meeting</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Skype Meeting</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -499,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -972,6 +980,39 @@
       </c>
       <c r="C42" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2">
+        <v>40260</v>
+      </c>
+      <c r="B43">
+        <v>2.5</v>
+      </c>
+      <c r="C43" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="2">
+        <v>40260</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="2">
+        <v>40263</v>
+      </c>
+      <c r="B45">
+        <v>0.5</v>
+      </c>
+      <c r="C45" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/status reports/nicholas.xlsx
+++ b/status reports/nicholas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -143,6 +143,10 @@
   </si>
   <si>
     <t>Skype Meeting</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Group Meeting</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -507,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1013,6 +1017,28 @@
       </c>
       <c r="C45" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="2">
+        <v>40267</v>
+      </c>
+      <c r="B46">
+        <v>1.5</v>
+      </c>
+      <c r="C46" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="2">
+        <v>40267</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/status reports/nicholas.xlsx
+++ b/status reports/nicholas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -147,6 +147,10 @@
   </si>
   <si>
     <t>Group Meeting</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Machining</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -511,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
       <selection activeCell="A48" sqref="A48"/>
@@ -1039,6 +1043,17 @@
       </c>
       <c r="C47" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="2">
+        <v>40283</v>
+      </c>
+      <c r="B48">
+        <v>4</v>
+      </c>
+      <c r="C48" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/status reports/nicholas.xlsx
+++ b/status reports/nicholas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -152,6 +152,36 @@
   <si>
     <t>Machining</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Implant Review</t>
+  </si>
+  <si>
+    <t>Previous documentation review</t>
+  </si>
+  <si>
+    <t>Final documentation structure</t>
+  </si>
+  <si>
+    <t>Rotation gravity compensation spreadsheet for new design</t>
+  </si>
+  <si>
+    <t>TAR Review</t>
+  </si>
+  <si>
+    <t>Gravity comp. curves</t>
+  </si>
+  <si>
+    <t>Gravity comp write up</t>
+  </si>
+  <si>
+    <t>Testing procedure</t>
+  </si>
+  <si>
+    <t>Machining</t>
+  </si>
+  <si>
+    <t>Final documentation</t>
   </si>
 </sst>
 </file>
@@ -162,14 +192,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -178,7 +208,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -218,7 +248,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -231,7 +261,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -515,16 +545,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.375" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" customWidth="1"/>
     <col min="3" max="3" width="59" customWidth="1"/>
   </cols>
   <sheetData>
@@ -951,21 +981,21 @@
         <v>40241</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2">
-        <v>40246</v>
+        <v>40241</v>
       </c>
       <c r="B40">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -973,87 +1003,252 @@
         <v>40246</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="C41" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2">
-        <v>40253</v>
+        <v>40246</v>
       </c>
       <c r="B42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2">
-        <v>40260</v>
+        <v>40251</v>
       </c>
       <c r="B43">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="C43" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2">
-        <v>40260</v>
+        <v>40252</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C44" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2">
-        <v>40263</v>
+        <v>40253</v>
       </c>
       <c r="B45">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="C45" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2">
-        <v>40267</v>
+        <v>40255</v>
       </c>
       <c r="B46">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2">
-        <v>40267</v>
+        <v>40255</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C47" t="s">
-        <v>3</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2">
+        <v>40260</v>
+      </c>
+      <c r="B48">
+        <v>2.5</v>
+      </c>
+      <c r="C48" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="2">
+        <v>40260</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="2">
+        <v>40263</v>
+      </c>
+      <c r="B50">
+        <v>0.5</v>
+      </c>
+      <c r="C50" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="2">
+        <v>40267</v>
+      </c>
+      <c r="B51">
+        <v>1.5</v>
+      </c>
+      <c r="C51" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="2">
+        <v>40267</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="2">
+        <v>40273</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="2">
+        <v>40274</v>
+      </c>
+      <c r="B54">
+        <v>6</v>
+      </c>
+      <c r="C54" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="2">
+        <v>40274</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="2">
+        <v>40277</v>
+      </c>
+      <c r="B56">
+        <v>4</v>
+      </c>
+      <c r="C56" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="2">
+        <v>40278</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="2">
+        <v>40280</v>
+      </c>
+      <c r="B58">
+        <v>4</v>
+      </c>
+      <c r="C58" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="2">
+        <v>40281</v>
+      </c>
+      <c r="B59">
+        <v>4</v>
+      </c>
+      <c r="C59" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="2">
         <v>40283</v>
       </c>
-      <c r="B48">
+      <c r="B60">
         <v>4</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C60" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="2">
+        <v>40284</v>
+      </c>
+      <c r="B61">
+        <v>4</v>
+      </c>
+      <c r="C61" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="2">
+        <v>40285</v>
+      </c>
+      <c r="B62">
+        <v>12</v>
+      </c>
+      <c r="C62" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="2">
+        <v>40286</v>
+      </c>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1069,7 +1264,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1083,7 +1278,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/status reports/nicholas.xlsx
+++ b/status reports/nicholas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1"/>
@@ -182,6 +182,18 @@
   </si>
   <si>
     <t>Final documentation</t>
+  </si>
+  <si>
+    <t>Final Report Editing</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Machining</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Maching, assembly</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -192,14 +204,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -208,7 +220,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -248,7 +260,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -261,7 +273,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -545,16 +557,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.375" customWidth="1"/>
     <col min="3" max="3" width="59" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1220,21 +1232,21 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2">
-        <v>40284</v>
+        <v>40285</v>
       </c>
       <c r="B61">
         <v>4</v>
       </c>
       <c r="C61" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="2">
-        <v>40285</v>
+        <v>40284</v>
       </c>
       <c r="B62">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C62" t="s">
         <v>46</v>
@@ -1242,13 +1254,57 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="2">
-        <v>40286</v>
+        <v>40285</v>
       </c>
       <c r="B63">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C63" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="2">
+        <v>40286</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="2">
+        <v>40287</v>
+      </c>
+      <c r="B65">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="2">
+        <v>40288</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="2">
+        <v>40289</v>
+      </c>
+      <c r="B67">
+        <v>8</v>
+      </c>
+      <c r="C67" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1264,7 +1320,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1278,7 +1334,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
